--- a/CE05MOAS-GL312/Omaha_Cal_Info_CE05MOAS-GL312_00001.xlsx
+++ b/CE05MOAS-GL312/Omaha_Cal_Info_CE05MOAS-GL312_00001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12708" yWindow="-12" windowWidth="12516" windowHeight="12396" tabRatio="377" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="12708" yWindow="-12" windowWidth="12516" windowHeight="12396" tabRatio="377" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="3" r:id="rId1"/>
@@ -268,7 +268,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -571,7 +571,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1067,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1172,7 +1172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/CE05MOAS-GL312/Omaha_Cal_Info_CE05MOAS-GL312_00001.xlsx
+++ b/CE05MOAS-GL312/Omaha_Cal_Info_CE05MOAS-GL312_00001.xlsx
@@ -1,38 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="377" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="377" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Read Me" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Moorings" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Asset_Cal_Info" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Read Me" sheetId="1" r:id="rId1"/>
+    <sheet name="Moorings" sheetId="2" r:id="rId2"/>
+    <sheet name="Asset_Cal_Info" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="_FilterDatabase_0" vbProcedure="false">moorings!#ref!</definedName>
-    <definedName function="false" hidden="false" name="_FilterDatabase_0_0" vbProcedure="false">Moorings!$A$1:$J$76</definedName>
-    <definedName function="false" hidden="false" name="_FilterDatabase_0_0_0" vbProcedure="false">moorings!#ref!</definedName>
-    <definedName function="false" hidden="false" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Moorings!$A$1:$J$76</definedName>
-    <definedName function="false" hidden="false" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Asset_Cal_Info!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Asset_Cal_Info!$A$1:$F$311</definedName>
-    <definedName function="false" hidden="false" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Asset_Cal_Info!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Asset_Cal_Info!$A$1:$F$311</definedName>
-    <definedName function="false" hidden="false" name="_FilterDatabase_0_0_0_0_1" vbProcedure="false">Asset_Cal_Info!$A$1:$F$311</definedName>
-    <definedName function="false" hidden="false" name="_FilterDatabase_0_0_0_1" vbProcedure="false">Asset_Cal_Info!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" name="_FilterDatabase_0_0_1" vbProcedure="false">Asset_Cal_Info!$A$1:$F$311</definedName>
-    <definedName function="false" hidden="false" name="_FilterDatabase_0_1" vbProcedure="false">Asset_Cal_Info!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" name="_FilterDatabase_1" vbProcedure="false">Asset_Cal_Info!$A$1:$F$19</definedName>
-    <definedName function="false" hidden="false" name="_FilterDatabase_1_1" vbProcedure="false">Asset_Cal_Info!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" name="_FilterDatabase_1_1_1" vbProcedure="false">Moorings!$A$1:$J$76</definedName>
-    <definedName function="false" hidden="false" name="_FilterDatabase_2" vbProcedure="false">Asset_Cal_Info!$A$1:$F$311</definedName>
-    <definedName function="false" hidden="false" name="_xlnm._FilterDatabase" vbProcedure="false">Asset_Cal_Info!$A$1:$F$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Asset_Cal_Info!$A$1:$F$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2">Asset_Cal_Info!$A$1:$F$19</definedName>
+    <definedName name="_xlnm._FilterDatabase">Asset_Cal_Info!$A$1:$F$19</definedName>
+    <definedName name="_FilterDatabase_0">Moorings!#REF!</definedName>
+    <definedName name="_FilterDatabase_0_0">Moorings!$A$1:$J$76</definedName>
+    <definedName name="_FilterDatabase_0_0_0">Moorings!#REF!</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0">Moorings!$A$1:$J$76</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0">Asset_Cal_Info!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$F$311</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$F$311</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_1">Asset_Cal_Info!$A$1:$F$311</definedName>
+    <definedName name="_FilterDatabase_0_0_0_1">Asset_Cal_Info!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_1">Asset_Cal_Info!$A$1:$F$311</definedName>
+    <definedName name="_FilterDatabase_0_1">Asset_Cal_Info!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_1">Asset_Cal_Info!$A$1:$F$19</definedName>
+    <definedName name="_FilterDatabase_1_1">Asset_Cal_Info!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$76</definedName>
+    <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$311</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -40,7 +39,7 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <r>
-      <t xml:space="preserve">File Name Instruction</t>
+      <t>File Name Instruction</t>
     </r>
     <r>
       <rPr>
@@ -50,7 +49,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">:  Convention for naming this file is as follows:</t>
+      <t>:  Convention for naming this file is as follows:</t>
     </r>
   </si>
   <si>
@@ -61,7 +60,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Unique identifier number</t>
+      <t>Unique identifier number</t>
     </r>
     <r>
       <rPr>
@@ -71,7 +70,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">/deployment number</t>
+      <t>/deployment number</t>
     </r>
     <r>
       <rPr>
@@ -92,7 +91,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Gliders Spreadsheet Instructions</t>
+      <t>Gliders Spreadsheet Instructions</t>
     </r>
     <r>
       <rPr>
@@ -102,7 +101,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">:  Convention for completing this spreadsheet is embedded in that spreadsheet.</t>
+      <t>:  Convention for completing this spreadsheet is embedded in that spreadsheet.</t>
     </r>
   </si>
   <si>
@@ -119,7 +118,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Asset Cal Info Spreadsheet Instructions</t>
+      <t>Asset Cal Info Spreadsheet Instructions</t>
     </r>
     <r>
       <rPr>
@@ -129,7 +128,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">:  Convention for completing this spreadsheet appears embedded at the bottom of each column on the spreadsheet.</t>
+      <t>:  Convention for completing this spreadsheet appears embedded at the bottom of each column on the spreadsheet.</t>
     </r>
   </si>
   <si>
@@ -142,7 +141,7 @@
     <t>Tab names, column names, number formatting must be same format as this sample. This is read by code that is pretty finicky.</t>
   </si>
   <si>
-    <t>NOTE:  The use of DO NOT CHANGE as guidance in this template is not absolute.  There may be instances where a change is necessary; e.g., an instrument is added/deleted/changed.  Please be careful! </t>
+    <t>NOTE:  The use of DO NOT CHANGE as guidance in this template is not absolute.  There may be instances where a change is necessary; e.g., an instrument is added/deleted/changed.  Please be careful!</t>
   </si>
   <si>
     <t>Ref Des</t>
@@ -247,13 +246,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="D\-MMM\-YY;@"/>
-    <numFmt numFmtId="166" formatCode="H:MM"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -262,29 +259,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -299,7 +274,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -326,7 +301,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -336,6 +311,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FFBFBFBF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -374,226 +356,168 @@
     </fill>
   </fills>
   <borders count="6">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 15" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Normal 2" xfId="21" builtinId="54" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -652,84 +576,379 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="58.3367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.4438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.72959183673469"/>
+    <col min="1" max="1" width="58.28515625"/>
+    <col min="2" max="2" width="55.42578125"/>
+    <col min="3" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -737,7 +956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>13</v>
       </c>
@@ -748,7 +967,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
@@ -759,7 +978,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>15</v>
       </c>
@@ -773,42 +992,34 @@
       <c r="I22" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.8877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.4438775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.1071428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.4387755102041"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="18.6632653061224"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.8928571428571"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.8826530612245"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="51.6632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.66836734693878"/>
+    <col min="1" max="1" width="37.85546875"/>
+    <col min="2" max="2" width="39.42578125"/>
+    <col min="3" max="3" width="14.42578125"/>
+    <col min="4" max="4" width="24.140625"/>
+    <col min="5" max="6" width="17.42578125"/>
+    <col min="7" max="8" width="18.7109375"/>
+    <col min="9" max="9" width="17.85546875"/>
+    <col min="10" max="10" width="14.85546875"/>
+    <col min="11" max="11" width="51.7109375"/>
+    <col min="12" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -843,23 +1054,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="11" t="n">
+      <c r="B2" s="11">
         <v>312</v>
       </c>
-      <c r="C2" s="11" t="n">
+      <c r="C2" s="11">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="n">
+      <c r="D2" s="12">
         <v>41750</v>
       </c>
-      <c r="E2" s="13" t="n">
-        <v>0.00763888888888889</v>
-      </c>
-      <c r="F2" s="12" t="n">
+      <c r="E2" s="13">
+        <v>7.6388888888888904E-3</v>
+      </c>
+      <c r="F2" s="12">
         <v>41835</v>
       </c>
       <c r="G2" s="14" t="s">
@@ -868,59 +1079,51 @@
       <c r="H2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="11" t="n">
+      <c r="I2" s="11">
         <v>0</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>30</v>
       </c>
       <c r="K2" s="15"/>
-      <c r="L2" s="16" t="n">
-        <f aca="false">((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
-        <v>44.6602333333333</v>
-      </c>
-      <c r="M2" s="16" t="n">
-        <f aca="false">((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="E",1,-1))</f>
-        <v>-124.548816666667</v>
+      <c r="L2" s="16">
+        <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
+        <v>44.660233333333331</v>
+      </c>
+      <c r="M2" s="16">
+        <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="E",1,-1))</f>
+        <v>-124.54881666666667</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.1071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.8928571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.4489795918367"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.8877551020408"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.4438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.66836734693878"/>
+    <col min="1" max="1" width="34.5703125"/>
+    <col min="2" max="2" width="25"/>
+    <col min="3" max="3" width="26.140625"/>
+    <col min="4" max="4" width="26.85546875"/>
+    <col min="5" max="6" width="28.85546875"/>
+    <col min="7" max="7" width="11.42578125"/>
+    <col min="8" max="8" width="11.85546875"/>
+    <col min="9" max="9" width="14.42578125"/>
+    <col min="10" max="10" width="13.42578125"/>
+    <col min="11" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -940,17 +1143,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:16" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="21" t="n">
+      <c r="B2" s="21">
         <v>312</v>
       </c>
-      <c r="C2" s="21" t="n">
+      <c r="C2" s="21">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="n">
+      <c r="D2" s="22">
         <v>50146</v>
       </c>
       <c r="E2" s="23"/>
@@ -961,7 +1164,7 @@
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
     </row>
-    <row r="3" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:16" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="20"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -974,24 +1177,24 @@
       <c r="J3" s="23"/>
       <c r="K3" s="23"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="21" t="n">
+      <c r="B4" s="21">
         <v>312</v>
       </c>
-      <c r="C4" s="21" t="n">
+      <c r="C4" s="21">
         <v>1</v>
       </c>
-      <c r="D4" s="22" t="n">
+      <c r="D4" s="22">
         <v>2761</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="27" t="n">
-        <v>117</v>
+      <c r="F4" s="27">
+        <v>124</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
@@ -999,23 +1202,23 @@
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="21" t="n">
+      <c r="B5" s="21">
         <v>312</v>
       </c>
-      <c r="C5" s="21" t="n">
+      <c r="C5" s="21">
         <v>1</v>
       </c>
-      <c r="D5" s="22" t="n">
+      <c r="D5" s="22">
         <v>2761</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="27" t="n">
+      <c r="F5" s="27">
         <v>700</v>
       </c>
       <c r="G5" s="23"/>
@@ -1024,24 +1227,24 @@
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="21" t="n">
+      <c r="B6" s="21">
         <v>312</v>
       </c>
-      <c r="C6" s="21" t="n">
+      <c r="C6" s="21">
         <v>1</v>
       </c>
-      <c r="D6" s="22" t="n">
+      <c r="D6" s="22">
         <v>2761</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="27" t="n">
-        <v>1.08</v>
+      <c r="F6" s="27">
+        <v>1.0760000000000001</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
@@ -1049,24 +1252,24 @@
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="21" t="n">
+      <c r="B7" s="21">
         <v>312</v>
       </c>
-      <c r="C7" s="21" t="n">
+      <c r="C7" s="21">
         <v>1</v>
       </c>
-      <c r="D7" s="22" t="n">
+      <c r="D7" s="22">
         <v>2761</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="27" t="n">
-        <v>0.039</v>
+      <c r="F7" s="27">
+        <v>3.9E-2</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
@@ -1074,7 +1277,7 @@
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -1087,23 +1290,23 @@
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="21" t="n">
+      <c r="B9" s="21">
         <v>312</v>
       </c>
-      <c r="C9" s="21" t="n">
+      <c r="C9" s="21">
         <v>1</v>
       </c>
-      <c r="D9" s="22" t="n">
+      <c r="D9" s="22">
         <v>642932</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="30" t="n">
+      <c r="F9" s="30">
         <v>0.61</v>
       </c>
       <c r="G9" s="31"/>
@@ -1117,23 +1320,23 @@
       <c r="O9" s="31"/>
       <c r="P9" s="31"/>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="21" t="n">
+      <c r="B10" s="21">
         <v>312</v>
       </c>
-      <c r="C10" s="21" t="n">
+      <c r="C10" s="21">
         <v>1</v>
       </c>
-      <c r="D10" s="22" t="n">
+      <c r="D10" s="22">
         <v>642932</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="30" t="n">
+      <c r="F10" s="30">
         <v>0.61</v>
       </c>
       <c r="G10" s="31"/>
@@ -1147,23 +1350,23 @@
       <c r="O10" s="31"/>
       <c r="P10" s="31"/>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="21" t="n">
+      <c r="B11" s="21">
         <v>312</v>
       </c>
-      <c r="C11" s="21" t="n">
+      <c r="C11" s="21">
         <v>1</v>
       </c>
-      <c r="D11" s="22" t="n">
+      <c r="D11" s="22">
         <v>642932</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="30" t="n">
+      <c r="F11" s="30">
         <v>0.61</v>
       </c>
       <c r="G11" s="31"/>
@@ -1177,23 +1380,23 @@
       <c r="O11" s="31"/>
       <c r="P11" s="31"/>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="21" t="n">
+      <c r="B12" s="21">
         <v>312</v>
       </c>
-      <c r="C12" s="21" t="n">
+      <c r="C12" s="21">
         <v>1</v>
       </c>
-      <c r="D12" s="22" t="n">
+      <c r="D12" s="22">
         <v>642932</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="30" t="n">
+      <c r="F12" s="30">
         <v>0.61</v>
       </c>
       <c r="G12" s="31"/>
@@ -1207,7 +1410,7 @@
       <c r="O12" s="31"/>
       <c r="P12" s="31"/>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -1225,17 +1428,17 @@
       <c r="O13" s="31"/>
       <c r="P13" s="31"/>
     </row>
-    <row r="14" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:16" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="21" t="n">
+      <c r="B14" s="21">
         <v>312</v>
       </c>
-      <c r="C14" s="21" t="n">
+      <c r="C14" s="21">
         <v>1</v>
       </c>
-      <c r="D14" s="22" t="n">
+      <c r="D14" s="22">
         <v>27</v>
       </c>
       <c r="E14" s="23"/>
@@ -1246,7 +1449,7 @@
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
     </row>
-    <row r="15" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:16" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -1259,17 +1462,17 @@
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
     </row>
-    <row r="16" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:16" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="21" t="n">
+      <c r="B16" s="21">
         <v>312</v>
       </c>
-      <c r="C16" s="21" t="n">
+      <c r="C16" s="21">
         <v>1</v>
       </c>
-      <c r="D16" s="22" t="n">
+      <c r="D16" s="22">
         <v>9015</v>
       </c>
       <c r="E16" s="23"/>
@@ -1280,7 +1483,7 @@
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
     </row>
-    <row r="17" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:11" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -1293,17 +1496,17 @@
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
     </row>
-    <row r="18" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:11" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="21" t="n">
+      <c r="B18" s="21">
         <v>312</v>
       </c>
-      <c r="C18" s="21" t="n">
+      <c r="C18" s="21">
         <v>1</v>
       </c>
-      <c r="D18" s="22" t="n">
+      <c r="D18" s="22">
         <v>312</v>
       </c>
       <c r="E18" s="23"/>
@@ -1315,12 +1518,7 @@
       <c r="K18" s="23"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>